--- a/추가정보/테이블.xlsx
+++ b/추가정보/테이블.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ff14p\Documents\GitHub\TIKITAKA\추가정보\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A33FCD5-D702-404A-82BD-9B010686ECFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DF8FEF-FCA9-431D-AFD2-6CC4229FA904}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="80">
   <si>
     <t>NM</t>
   </si>
@@ -255,6 +255,14 @@
   </si>
   <si>
     <t>네고여부</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세설명</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTENT</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -330,44 +338,47 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -682,396 +693,403 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C6:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="3"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="3" t="s">
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="3" t="s">
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="3" t="s">
+      <c r="J7" s="11"/>
+      <c r="K7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="P7" s="1"/>
+      <c r="P7" s="11"/>
     </row>
     <row r="8" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="N8" s="3" t="s">
+      <c r="J8" s="11"/>
+      <c r="N8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3" t="s">
+      <c r="P8" s="11"/>
+      <c r="Q8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="7"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="7" t="s">
+      <c r="J10" s="11"/>
+      <c r="K10" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="H11" s="7" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="H11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="7" t="s">
+      <c r="J11" s="11"/>
+      <c r="K11" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="H12" s="7" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="H12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="7"/>
-      <c r="N12" s="2" t="s">
+      <c r="J12" s="11"/>
+      <c r="K12" s="5"/>
+      <c r="N12" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="3" t="s">
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="7"/>
-      <c r="N13" s="4" t="s">
+      <c r="J13" s="11"/>
+      <c r="K13" s="5"/>
+      <c r="N13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="O13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3" t="s">
+      <c r="P13" s="11"/>
+      <c r="Q13" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="3" t="s">
+      <c r="J14" s="11"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="O14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="P14" s="1"/>
+      <c r="P14" s="11"/>
     </row>
     <row r="15" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="N15" s="6" t="s">
+      <c r="J15" s="11"/>
+      <c r="N15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="O15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="P15" s="1"/>
+      <c r="P15" s="11"/>
     </row>
     <row r="16" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="9" t="s">
         <v>76</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="N16" s="6" t="s">
+      <c r="J16" s="11"/>
+      <c r="N16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="O16" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="P16" s="1"/>
+      <c r="P16" s="11"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="H17" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" s="11"/>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="4" t="s">
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="4" t="s">
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="N21" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="3" t="s">
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="3" t="s">
+      <c r="E22" s="11"/>
+      <c r="F22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="N22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="O22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="P22" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="N23" s="3" t="s">
+      <c r="E23" s="11"/>
+      <c r="N23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="O23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="P23" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="3" t="s">
+      <c r="E25" s="11"/>
+      <c r="F25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="3" t="s">
+      <c r="E26" s="11"/>
+      <c r="F26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="3" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
+  <mergeCells count="29">
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="O8:P8"/>
@@ -1088,11 +1106,14 @@
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="I21:K21"/>
     <mergeCell ref="N21:P21"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/추가정보/테이블.xlsx
+++ b/추가정보/테이블.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ff14p\Documents\GitHub\TIKITAKA\추가정보\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DF8FEF-FCA9-431D-AFD2-6CC4229FA904}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184F3410-CC65-4BAA-BFBE-391F36EA82A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3285" yWindow="2010" windowWidth="20880" windowHeight="13590" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
   <si>
     <t>NM</t>
   </si>
@@ -263,6 +263,50 @@
   </si>
   <si>
     <t>CONTENT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMG_COUNT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROD_FINISH</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지개수</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매완료여부</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAN_NM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WRITING_TIME</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>readCheck</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성 시간</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인여부</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -270,7 +314,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -303,19 +347,27 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAFABAB"/>
-        <bgColor auto="1"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -338,7 +390,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -357,28 +409,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -691,10 +749,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="C6:R26"/>
+  <dimension ref="C6:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -703,29 +761,29 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
       <c r="L6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
       <c r="R6" s="1" t="s">
         <v>34</v>
       </c>
@@ -743,20 +801,20 @@
       <c r="H7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="11"/>
+      <c r="J7" s="12"/>
       <c r="K7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="P7" s="11"/>
+      <c r="P7" s="12"/>
     </row>
     <row r="8" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
@@ -768,17 +826,17 @@
       <c r="H8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="11"/>
+      <c r="J8" s="12"/>
       <c r="N8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="P8" s="11"/>
+      <c r="P8" s="12"/>
       <c r="Q8" s="1" t="s">
         <v>17</v>
       </c>
@@ -793,10 +851,10 @@
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="11"/>
+      <c r="J9" s="12"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="3:18" x14ac:dyDescent="0.3">
@@ -809,10 +867,10 @@
       <c r="H10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="11"/>
+      <c r="J10" s="12"/>
       <c r="K10" s="5" t="s">
         <v>29</v>
       </c>
@@ -824,15 +882,15 @@
       <c r="D11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
       <c r="H11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="11"/>
+      <c r="J11" s="12"/>
       <c r="K11" s="5" t="s">
         <v>29</v>
       </c>
@@ -844,22 +902,22 @@
       <c r="D12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
       <c r="H12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="11"/>
+      <c r="J12" s="12"/>
       <c r="K12" s="5"/>
-      <c r="N12" s="13" t="s">
+      <c r="N12" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
       <c r="R12" s="1" t="s">
         <v>26</v>
       </c>
@@ -874,18 +932,18 @@
       <c r="H13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="J13" s="11"/>
+      <c r="J13" s="12"/>
       <c r="K13" s="5"/>
       <c r="N13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O13" s="11" t="s">
+      <c r="O13" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="P13" s="11"/>
+      <c r="P13" s="12"/>
       <c r="Q13" s="1" t="s">
         <v>17</v>
       </c>
@@ -897,13 +955,16 @@
       <c r="D14" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="E14" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="H14" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="J14" s="11"/>
+      <c r="J14" s="12"/>
       <c r="K14" s="5"/>
       <c r="L14" s="1" t="s">
         <v>62</v>
@@ -911,10 +972,10 @@
       <c r="N14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="O14" s="11" t="s">
+      <c r="O14" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="P14" s="11"/>
+      <c r="P14" s="12"/>
     </row>
     <row r="15" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
@@ -923,20 +984,23 @@
       <c r="D15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="E15" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="11"/>
+      <c r="J15" s="12"/>
       <c r="N15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="11" t="s">
+      <c r="O15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="P15" s="11"/>
+      <c r="P15" s="12"/>
     </row>
     <row r="16" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
@@ -945,53 +1009,78 @@
       <c r="D16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="J16" s="11"/>
+      <c r="J16" s="12"/>
       <c r="N16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="O16" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="P16" s="11"/>
+      <c r="P16" s="12"/>
     </row>
     <row r="17" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J17" s="11"/>
+      <c r="J17" s="12"/>
+      <c r="N17" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="13"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="H18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="H19" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" s="13"/>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
       <c r="L21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="N21" s="13" t="s">
+      <c r="N21" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
       <c r="Q21" s="1" t="s">
         <v>70</v>
       </c>
@@ -1000,10 +1089,10 @@
       <c r="C22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="11"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1030,10 +1119,10 @@
       <c r="C23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="11"/>
+      <c r="E23" s="12"/>
       <c r="N23" s="1" t="s">
         <v>7</v>
       </c>
@@ -1048,19 +1137,19 @@
       <c r="C24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="11"/>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="11"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="1" t="s">
         <v>29</v>
       </c>
@@ -1072,10 +1161,10 @@
       <c r="C26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="11"/>
+      <c r="E26" s="12"/>
       <c r="F26" s="1" t="s">
         <v>29</v>
       </c>
@@ -1083,13 +1172,39 @@
         <v>6</v>
       </c>
     </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C27" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C28" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
+  <mergeCells count="34">
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I18:J18"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="O8:P8"/>
@@ -1106,14 +1221,11 @@
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="I21:K21"/>
     <mergeCell ref="N21:P21"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/추가정보/테이블.xlsx
+++ b/추가정보/테이블.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ff14p\Documents\GitHub\TIKITAKA\추가정보\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manbou\Documents\GitHub\TIKITAKA\추가정보\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184F3410-CC65-4BAA-BFBE-391F36EA82A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B834577C-03F5-4C34-89D4-5450BEE805B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="2010" windowWidth="20880" windowHeight="13590" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28875" yWindow="1185" windowWidth="27855" windowHeight="15090" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
-  <si>
-    <t>NM</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="104">
   <si>
     <t>BLIST(BLACKLIST)</t>
   </si>
@@ -67,9 +64,6 @@
     <t>PROD(PRODUCT)</t>
   </si>
   <si>
-    <t>PWD</t>
-  </si>
-  <si>
     <t>주소</t>
   </si>
   <si>
@@ -112,201 +106,269 @@
     <t>FK</t>
   </si>
   <si>
+    <t>카테고리번호</t>
+  </si>
+  <si>
+    <t>카테고리</t>
+  </si>
+  <si>
+    <t>CAT_NO</t>
+  </si>
+  <si>
+    <t>제품번호</t>
+  </si>
+  <si>
+    <t>제품이름</t>
+  </si>
+  <si>
+    <t>신고게시판</t>
+  </si>
+  <si>
+    <t>COMP_NM</t>
+  </si>
+  <si>
+    <t>SUSPECT</t>
+  </si>
+  <si>
+    <t>PROD_NM</t>
+  </si>
+  <si>
+    <t>CAT_NM</t>
+  </si>
+  <si>
+    <t>제품가격</t>
+  </si>
+  <si>
+    <t>신고 번호</t>
+  </si>
+  <si>
+    <t>신고 제목</t>
+  </si>
+  <si>
+    <t>판매점수</t>
+  </si>
+  <si>
+    <t>신고 내용</t>
+  </si>
+  <si>
+    <t>비밀번호</t>
+  </si>
+  <si>
+    <t>카테고리명</t>
+  </si>
+  <si>
+    <t>PROD_NO</t>
+  </si>
+  <si>
+    <t>생년월일</t>
+  </si>
+  <si>
+    <t>WDAY</t>
+  </si>
+  <si>
+    <t>MAN_ID</t>
+  </si>
+  <si>
+    <t>전화번호</t>
+  </si>
+  <si>
+    <t>PROD_CO</t>
+  </si>
+  <si>
+    <t>제품코드</t>
+  </si>
+  <si>
+    <t>REPO</t>
+  </si>
+  <si>
+    <t>상품코드</t>
+  </si>
+  <si>
+    <t>판매자ID</t>
+  </si>
+  <si>
+    <t>블랙리스트</t>
+  </si>
+  <si>
+    <t>인증여부</t>
+  </si>
+  <si>
+    <t>MAN_PWD</t>
+  </si>
+  <si>
+    <t>구매자ID</t>
+  </si>
+  <si>
+    <t>BUYLIST</t>
+  </si>
+  <si>
+    <t>구매리스트</t>
+  </si>
+  <si>
+    <t>거래방법</t>
+  </si>
+  <si>
+    <t>작성날짜</t>
+  </si>
+  <si>
+    <t>SEL_ID</t>
+  </si>
+  <si>
+    <t>MANAGER</t>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>NEGO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>네고여부</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세설명</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTENT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMG_COUNT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROD_FINISH</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지개수</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매완료여부</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAN_NM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WRITING_TIME</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>readCheck</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성 시간</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인여부</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUCTION</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>경매</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>STARTING_BID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>END_BID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUC_END_TIME</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUC_START_TIME</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작시간</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>마감시간</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>입찰가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>카테고리번호</t>
-  </si>
-  <si>
-    <t>BDAY</t>
-  </si>
-  <si>
-    <t>ADDR</t>
-  </si>
-  <si>
-    <t>카테고리</t>
-  </si>
-  <si>
-    <t>CAT_NO</t>
-  </si>
-  <si>
-    <t>제품번호</t>
-  </si>
-  <si>
-    <t>제품이름</t>
-  </si>
-  <si>
-    <t>신고게시판</t>
-  </si>
-  <si>
-    <t>COMP_NM</t>
-  </si>
-  <si>
-    <t>SUSPECT</t>
-  </si>
-  <si>
-    <t>PROD_NM</t>
-  </si>
-  <si>
-    <t>CAT_NM</t>
-  </si>
-  <si>
-    <t>제품가격</t>
-  </si>
-  <si>
-    <t>신고 번호</t>
-  </si>
-  <si>
-    <t>신고 제목</t>
-  </si>
-  <si>
-    <t>판매점수</t>
-  </si>
-  <si>
-    <t>신고 내용</t>
-  </si>
-  <si>
-    <t>비밀번호</t>
-  </si>
-  <si>
-    <t>카테고리명</t>
-  </si>
-  <si>
-    <t>PROD_NO</t>
-  </si>
-  <si>
-    <t>ROLE</t>
-  </si>
-  <si>
-    <t>생년월일</t>
-  </si>
-  <si>
-    <t>PNUM</t>
-  </si>
-  <si>
-    <t>POINTS</t>
-  </si>
-  <si>
-    <t>WDAY</t>
-  </si>
-  <si>
-    <t>MAN_ID</t>
-  </si>
-  <si>
-    <t>전화번호</t>
-  </si>
-  <si>
-    <t>PROD_CO</t>
-  </si>
-  <si>
-    <t>제품코드</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>REPO</t>
-  </si>
-  <si>
-    <t>상품코드</t>
-  </si>
-  <si>
-    <t>판매자ID</t>
-  </si>
-  <si>
-    <t>블랙리스트</t>
-  </si>
-  <si>
-    <t>인증여부</t>
-  </si>
-  <si>
-    <t>MAN_PWD</t>
-  </si>
-  <si>
-    <t>구매자ID</t>
-  </si>
-  <si>
-    <t>BUYLIST</t>
-  </si>
-  <si>
-    <t>GRADE</t>
-  </si>
-  <si>
-    <t>구매리스트</t>
-  </si>
-  <si>
-    <t>거래방법</t>
-  </si>
-  <si>
-    <t>작성날짜</t>
-  </si>
-  <si>
-    <t>SEL_ID</t>
-  </si>
-  <si>
-    <t>MANAGER</t>
-  </si>
-  <si>
-    <t>이름</t>
-  </si>
-  <si>
-    <t>NEGO</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>네고여부</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세설명</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONTENT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNIQUE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IMG_COUNT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROD_FINISH</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지개수</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매완료여부</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAN_NM</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>WRITING_TIME</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>readCheck</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성 시간</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인여부</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>입찰자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBR_ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBR_PWD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBR_BDAY</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBR_ADDR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBR_ROLE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBR_POINTS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBR_GRADE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBR_EMAIL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBR_PNUM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBR_NM</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -362,7 +424,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,6 +435,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -390,7 +458,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -424,19 +492,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -749,10 +832,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="C6:R28"/>
+  <dimension ref="C6:W28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -760,463 +843,495 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+    <row r="6" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="15"/>
+      <c r="T7" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="U7" s="19"/>
+      <c r="V7" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="N8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T8" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="U8" s="19"/>
+      <c r="V8" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="K9" s="5"/>
+      <c r="T9" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="U9" s="19"/>
+      <c r="V9" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C7" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="I10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="P7" s="12"/>
-    </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="12"/>
-      <c r="N8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="12"/>
+      <c r="J10" s="15"/>
       <c r="K10" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C11" s="6" t="s">
-        <v>51</v>
+        <v>27</v>
+      </c>
+      <c r="T10" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="U10" s="19"/>
+      <c r="V10" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C11" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="H11" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="12"/>
+      <c r="I11" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="15"/>
       <c r="K11" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>27</v>
+      </c>
+      <c r="T11" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="U11" s="19"/>
+      <c r="V11" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C12" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="H12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="J12" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="15"/>
       <c r="K12" s="5"/>
-      <c r="N12" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
+      <c r="N12" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
       <c r="R12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C13" s="1" t="s">
-        <v>69</v>
+        <v>24</v>
+      </c>
+      <c r="T12" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="U12" s="15"/>
+      <c r="V12" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C13" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" s="12"/>
+        <v>47</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="15"/>
       <c r="K13" s="5"/>
       <c r="N13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="P13" s="12"/>
+        <v>48</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="15"/>
       <c r="Q13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E14" s="10" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="J14" s="12"/>
+        <v>50</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="15"/>
       <c r="K14" s="5"/>
       <c r="L14" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="N14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="P14" s="15"/>
+    </row>
+    <row r="15" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="N15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="15"/>
+    </row>
+    <row r="16" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="O14" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="P14" s="12"/>
-    </row>
-    <row r="15" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="7" t="s">
+      <c r="I16" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="15"/>
+      <c r="N16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="12"/>
-      <c r="N15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="12"/>
-    </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="J16" s="12"/>
-      <c r="N16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="P16" s="12"/>
+      <c r="O16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16" s="15"/>
     </row>
     <row r="17" spans="3:17" x14ac:dyDescent="0.3">
       <c r="H17" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="J17" s="12"/>
+        <v>69</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="15"/>
       <c r="N17" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="O17" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="P17" s="13"/>
+        <v>75</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" s="14"/>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.3">
       <c r="H18" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="J18" s="13"/>
+        <v>71</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="H19" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="J19" s="13"/>
+      <c r="H19" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="14"/>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
+      <c r="C21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
       <c r="G21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
+        <v>33</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
       <c r="L21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="N21" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
+        <v>55</v>
+      </c>
+      <c r="N21" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
       <c r="Q21" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="12"/>
+        <v>4</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="15"/>
       <c r="F22" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="15"/>
       <c r="N23" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="15"/>
     </row>
     <row r="25" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="15"/>
       <c r="F25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G26" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C27" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="13"/>
+      <c r="C27" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="14"/>
     </row>
     <row r="28" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C28" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="13"/>
+        <v>78</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
+  <mergeCells count="41">
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="I21:K21"/>
@@ -1226,6 +1341,31 @@
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/추가정보/테이블.xlsx
+++ b/추가정보/테이블.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manbou\Documents\GitHub\TIKITAKA\추가정보\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gimmugyeong/IdeaProjects/TIKITAKA/추가정보/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B834577C-03F5-4C34-89D4-5450BEE805B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FEB726-21A9-7046-9AFA-AD40E62B2A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28875" yWindow="1185" windowWidth="27855" windowHeight="15090" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="20500" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="125">
   <si>
     <t>BLIST(BLACKLIST)</t>
   </si>
@@ -369,6 +369,90 @@
   </si>
   <si>
     <t>MBR_NM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAT_IDX</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOM_NO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROD_NO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEND_ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECIPIENT_ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SENDTIME</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>READ_COUNT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>방번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>보내는사람</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는사람</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅내용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>보낸시간</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>읽음여부</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>입찰진행</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIDDER</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -376,7 +460,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -423,6 +507,34 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -458,7 +570,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -501,25 +613,61 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -832,54 +980,54 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="C6:W28"/>
+  <dimension ref="C6:AC41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="C6" s="16" t="s">
+    <row r="6" spans="3:23">
+      <c r="C6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
       <c r="L6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="16" t="s">
+      <c r="N6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
       <c r="R6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T6" s="17" t="s">
+      <c r="T6" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
       <c r="W6" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:23">
       <c r="C7" s="3" t="s">
         <v>94</v>
       </c>
@@ -892,29 +1040,29 @@
       <c r="H7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="15"/>
+      <c r="J7" s="26"/>
       <c r="K7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O7" s="15" t="s">
+      <c r="O7" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="15"/>
-      <c r="T7" s="19" t="s">
+      <c r="P7" s="26"/>
+      <c r="T7" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="U7" s="19"/>
+      <c r="U7" s="30"/>
       <c r="V7" s="11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:23">
       <c r="C8" s="3" t="s">
         <v>95</v>
       </c>
@@ -924,29 +1072,29 @@
       <c r="H8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="15"/>
+      <c r="J8" s="26"/>
       <c r="N8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="15" t="s">
+      <c r="O8" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="15"/>
+      <c r="P8" s="26"/>
       <c r="Q8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T8" s="19" t="s">
+      <c r="T8" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="U8" s="19"/>
+      <c r="U8" s="30"/>
       <c r="V8" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:23">
       <c r="C9" s="3" t="s">
         <v>96</v>
       </c>
@@ -956,20 +1104,20 @@
       <c r="H9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="15"/>
+      <c r="J9" s="26"/>
       <c r="K9" s="5"/>
-      <c r="T9" s="19" t="s">
+      <c r="T9" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="U9" s="19"/>
+      <c r="U9" s="30"/>
       <c r="V9" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:23">
       <c r="C10" s="3" t="s">
         <v>97</v>
       </c>
@@ -979,23 +1127,23 @@
       <c r="H10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="15"/>
+      <c r="J10" s="26"/>
       <c r="K10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="T10" s="19" t="s">
+      <c r="T10" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="U10" s="19"/>
+      <c r="U10" s="30"/>
       <c r="V10" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="C11" s="20" t="s">
+    <row r="11" spans="3:23">
+      <c r="C11" s="16" t="s">
         <v>98</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -1006,22 +1154,22 @@
       <c r="H11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="15"/>
+      <c r="J11" s="26"/>
       <c r="K11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="T11" s="19" t="s">
+      <c r="T11" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="U11" s="19"/>
+      <c r="U11" s="30"/>
       <c r="V11" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:23">
       <c r="C12" s="7" t="s">
         <v>99</v>
       </c>
@@ -1033,29 +1181,29 @@
       <c r="H12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="J12" s="15"/>
+      <c r="J12" s="26"/>
       <c r="K12" s="5"/>
-      <c r="N12" s="16" t="s">
+      <c r="N12" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
       <c r="R12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T12" s="14" t="s">
+      <c r="T12" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="U12" s="15"/>
+      <c r="U12" s="26"/>
       <c r="V12" s="11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:23">
       <c r="C13" s="7" t="s">
         <v>100</v>
       </c>
@@ -1065,23 +1213,23 @@
       <c r="H13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="J13" s="15"/>
+      <c r="J13" s="26"/>
       <c r="K13" s="5"/>
       <c r="N13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O13" s="15" t="s">
+      <c r="O13" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="15"/>
+      <c r="P13" s="26"/>
       <c r="Q13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:23">
       <c r="C14" s="7" t="s">
         <v>101</v>
       </c>
@@ -1094,10 +1242,10 @@
       <c r="H14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="15"/>
+      <c r="J14" s="26"/>
       <c r="K14" s="5"/>
       <c r="L14" s="1" t="s">
         <v>53</v>
@@ -1105,12 +1253,12 @@
       <c r="N14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="O14" s="15" t="s">
+      <c r="O14" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="P14" s="15"/>
-    </row>
-    <row r="15" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="P14" s="26"/>
+    </row>
+    <row r="15" spans="3:23">
       <c r="C15" s="7" t="s">
         <v>102</v>
       </c>
@@ -1123,19 +1271,19 @@
       <c r="H15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="15"/>
+      <c r="J15" s="26"/>
       <c r="N15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O15" s="15" t="s">
+      <c r="O15" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="P15" s="15"/>
-    </row>
-    <row r="16" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="P15" s="26"/>
+    </row>
+    <row r="16" spans="3:23">
       <c r="C16" s="3" t="s">
         <v>103</v>
       </c>
@@ -1145,87 +1293,96 @@
       <c r="H16" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="15"/>
+      <c r="J16" s="26"/>
       <c r="N16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O16" s="15" t="s">
+      <c r="O16" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="P16" s="15"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="P16" s="26"/>
+    </row>
+    <row r="17" spans="3:29">
       <c r="H17" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="J17" s="15"/>
+      <c r="J17" s="26"/>
       <c r="N17" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="O17" s="14" t="s">
+      <c r="O17" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="P17" s="14"/>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="P17" s="27"/>
+    </row>
+    <row r="18" spans="3:29">
       <c r="H18" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" spans="3:29">
       <c r="H19" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J19" s="14"/>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C21" s="16" t="s">
+      <c r="J19" s="27"/>
+    </row>
+    <row r="21" spans="3:29">
+      <c r="C21" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
       <c r="G21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="16" t="s">
+      <c r="I21" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
       <c r="L21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N21" s="16" t="s">
+      <c r="N21" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
       <c r="Q21" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="T21" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29">
       <c r="C22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="15"/>
+      <c r="E22" s="26"/>
       <c r="F22" s="1" t="s">
         <v>15</v>
       </c>
@@ -1247,15 +1404,30 @@
       <c r="P22" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="T22" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="U22" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="V22" s="26"/>
+      <c r="W22" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="X22" s="14"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+    </row>
+    <row r="23" spans="3:29">
       <c r="C23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="15"/>
+      <c r="E23" s="26"/>
       <c r="N23" s="1" t="s">
         <v>6</v>
       </c>
@@ -1265,66 +1437,256 @@
       <c r="P23" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="T23" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="U23" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="V23" s="26"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+    </row>
+    <row r="24" spans="3:29">
       <c r="C24" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="15"/>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="E24" s="26"/>
+      <c r="T24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="U24" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="V24" s="26"/>
+      <c r="W24" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="X24" s="14"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24"/>
+    </row>
+    <row r="25" spans="3:29">
       <c r="C25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="15"/>
+      <c r="E25" s="26"/>
       <c r="F25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="T25" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="U25" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="V25" s="26"/>
+      <c r="W25" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="X25" s="15"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+    </row>
+    <row r="26" spans="3:29">
       <c r="C26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="15"/>
+      <c r="E26" s="26"/>
       <c r="F26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="T26" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="U26" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="V26" s="26"/>
+      <c r="W26" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="X26" s="15"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="20"/>
+    </row>
+    <row r="27" spans="3:29">
       <c r="C27" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="14"/>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="E27" s="27"/>
+      <c r="T27" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="U27" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="V27" s="27"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27"/>
+    </row>
+    <row r="28" spans="3:29">
       <c r="C28" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="E28" s="14"/>
+      <c r="E28" s="27"/>
+      <c r="T28" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="U28" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="V28" s="27"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+    </row>
+    <row r="29" spans="3:29">
+      <c r="T29" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="U29" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="V29" s="27"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="20"/>
+    </row>
+    <row r="30" spans="3:29">
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="20"/>
+      <c r="AC30"/>
+    </row>
+    <row r="31" spans="3:29">
+      <c r="C31" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29">
+      <c r="C32" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32" s="19"/>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" s="19"/>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35" s="17"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36" s="16"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="C37" s="7"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="3:6">
+      <c r="C38" s="7"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="C39" s="7"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="19"/>
+    </row>
+    <row r="40" spans="3:6">
+      <c r="C40" s="7"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="19"/>
+    </row>
+    <row r="41" spans="3:6">
+      <c r="C41" s="17"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="51">
+    <mergeCell ref="C31:E31"/>
     <mergeCell ref="T11:U11"/>
     <mergeCell ref="T12:U12"/>
     <mergeCell ref="T6:V6"/>
@@ -1366,6 +1728,15 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/추가정보/테이블.xlsx
+++ b/추가정보/테이블.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gimmugyeong/IdeaProjects/TIKITAKA/추가정보/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ff14p\Documents\GitHub\TIKITAKA\추가정보\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FEB726-21A9-7046-9AFA-AD40E62B2A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0490874-15B4-4D33-AACE-92751856BBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="20500" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1350" yWindow="1290" windowWidth="11745" windowHeight="13470" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="125">
   <si>
     <t>BLIST(BLACKLIST)</t>
   </si>
@@ -268,10 +268,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>readCheck</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>작성 시간</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -453,6 +449,10 @@
   </si>
   <si>
     <t>BIDDER</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>READ_CHECK</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -570,7 +570,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -604,9 +604,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -646,28 +643,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -982,54 +985,54 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C6:AC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="3:23">
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
       <c r="L6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="29" t="s">
+      <c r="N6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
       <c r="R6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="T6" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U6" s="32"/>
       <c r="V6" s="32"/>
-      <c r="W6" s="11" t="s">
-        <v>82</v>
+      <c r="W6" s="10" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="3:23">
       <c r="C7" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>26</v>
@@ -1040,31 +1043,31 @@
       <c r="H7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="26"/>
+      <c r="J7" s="30"/>
       <c r="K7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O7" s="26" t="s">
+      <c r="O7" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="26"/>
-      <c r="T7" s="30" t="s">
+      <c r="P7" s="30"/>
+      <c r="T7" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="U7" s="28"/>
+      <c r="V7" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="U7" s="30"/>
-      <c r="V7" s="11" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="8" spans="3:23">
       <c r="C8" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>43</v>
@@ -1072,180 +1075,182 @@
       <c r="H8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="26"/>
+      <c r="J8" s="30"/>
       <c r="N8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="26" t="s">
+      <c r="O8" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="26"/>
+      <c r="P8" s="30"/>
       <c r="Q8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T8" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="U8" s="30"/>
-      <c r="V8" s="11" t="s">
-        <v>88</v>
+      <c r="T8" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="U8" s="28"/>
+      <c r="V8" s="10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="3:23">
       <c r="C9" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="26"/>
+      <c r="J9" s="30"/>
       <c r="K9" s="5"/>
-      <c r="T9" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="U9" s="30"/>
-      <c r="V9" s="11" t="s">
-        <v>89</v>
+      <c r="T9" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="U9" s="28"/>
+      <c r="V9" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="3:23">
       <c r="C10" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="26"/>
+      <c r="J10" s="30"/>
       <c r="K10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="T10" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="U10" s="30"/>
-      <c r="V10" s="11" t="s">
-        <v>90</v>
+      <c r="T10" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="U10" s="28"/>
+      <c r="V10" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="3:23">
-      <c r="C11" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>56</v>
+      <c r="C11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="H11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="26"/>
+      <c r="J11" s="30"/>
       <c r="K11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="T11" s="30" t="s">
+      <c r="T11" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="U11" s="30"/>
-      <c r="V11" s="11" t="s">
-        <v>91</v>
+      <c r="U11" s="28"/>
+      <c r="V11" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="W11" s="25" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="3:23">
-      <c r="C12" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="6"/>
+      <c r="C12" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="F12" s="6"/>
       <c r="H12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="J12" s="26"/>
+      <c r="J12" s="30"/>
       <c r="K12" s="5"/>
-      <c r="N12" s="29" t="s">
+      <c r="N12" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
       <c r="R12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T12" s="27" t="s">
+      <c r="T12" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="U12" s="30"/>
+      <c r="V12" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="U12" s="26"/>
-      <c r="V12" s="11" t="s">
-        <v>93</v>
+      <c r="W12" s="25" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="3:23">
       <c r="C13" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="J13" s="26"/>
+        <v>41</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="30"/>
       <c r="K13" s="5"/>
       <c r="N13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O13" s="26" t="s">
+      <c r="O13" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="26"/>
+      <c r="P13" s="30"/>
       <c r="Q13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="J14" s="26"/>
+        <v>22</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="29"/>
       <c r="K14" s="5"/>
       <c r="L14" s="1" t="s">
         <v>53</v>
@@ -1253,136 +1258,139 @@
       <c r="N14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="O14" s="26" t="s">
+      <c r="O14" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="P14" s="26"/>
+      <c r="P14" s="30"/>
     </row>
     <row r="15" spans="3:23">
       <c r="C15" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="30"/>
+      <c r="N15" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O15" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" s="29"/>
+    </row>
+    <row r="16" spans="3:23">
+      <c r="C16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H16" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="30"/>
+      <c r="N16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O16" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="30"/>
+    </row>
+    <row r="17" spans="3:29">
+      <c r="H17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I17" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="26"/>
-      <c r="N15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O15" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P15" s="26"/>
-    </row>
-    <row r="16" spans="3:23">
-      <c r="C16" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="26"/>
-      <c r="N16" s="4" t="s">
+      <c r="J17" s="30"/>
+      <c r="N17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O16" s="26" t="s">
+      <c r="O17" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="P16" s="26"/>
-    </row>
-    <row r="17" spans="3:29">
-      <c r="H17" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="J17" s="26"/>
-      <c r="N17" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="O17" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="P17" s="27"/>
+      <c r="P17" s="30"/>
     </row>
     <row r="18" spans="3:29">
       <c r="H18" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="I18" s="27" t="s">
+      <c r="I18" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="J18" s="27"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="19" spans="3:29">
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I19" s="27" t="s">
+      <c r="I19" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="J19" s="27"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="21" spans="3:29">
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
       <c r="G21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="29" t="s">
+      <c r="I21" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
       <c r="L21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N21" s="29" t="s">
+      <c r="N21" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
       <c r="Q21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="T21" s="28" t="s">
+      <c r="T21" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="15" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="22" spans="3:29">
       <c r="C22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="26"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="1" t="s">
         <v>15</v>
       </c>
@@ -1404,30 +1412,30 @@
       <c r="P22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T22" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="U22" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="V22" s="26"/>
-      <c r="W22" s="14" t="s">
+      <c r="T22" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="U22" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="V22" s="30"/>
+      <c r="W22" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="X22" s="14"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20"/>
+      <c r="X22" s="13"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
     </row>
     <row r="23" spans="3:29">
       <c r="C23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="26"/>
+      <c r="E23" s="30"/>
       <c r="N23" s="1" t="s">
         <v>6</v>
       </c>
@@ -1437,255 +1445,290 @@
       <c r="P23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T23" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="U23" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="V23" s="26"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="20"/>
+      <c r="T23" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="U23" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="V23" s="30"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="19"/>
     </row>
     <row r="24" spans="3:29">
       <c r="C24" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="26"/>
+      <c r="E24" s="30"/>
       <c r="T24" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="U24" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="V24" s="26"/>
-      <c r="W24" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="X24" s="14"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
+        <v>107</v>
+      </c>
+      <c r="U24" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="V24" s="30"/>
+      <c r="W24" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="X24" s="13"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
       <c r="AC24"/>
     </row>
     <row r="25" spans="3:29">
       <c r="C25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="26"/>
+      <c r="E25" s="30"/>
       <c r="F25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="T25" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="U25" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="V25" s="26"/>
-      <c r="W25" s="14" t="s">
+      <c r="T25" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="U25" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="V25" s="30"/>
+      <c r="W25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="X25" s="15"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="20"/>
+      <c r="X25" s="14"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="19"/>
     </row>
     <row r="26" spans="3:29">
       <c r="C26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="26"/>
+      <c r="E26" s="30"/>
       <c r="F26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T26" s="23" t="s">
+      <c r="T26" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="U26" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="V26" s="30"/>
+      <c r="W26" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="X26" s="14"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19"/>
+    </row>
+    <row r="27" spans="3:29">
+      <c r="C27" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="29"/>
+      <c r="T27" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="U27" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="V27" s="29"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27"/>
+    </row>
+    <row r="28" spans="3:29">
+      <c r="C28" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="29"/>
+      <c r="T28" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="U26" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="V26" s="26"/>
-      <c r="W26" s="22" t="s">
+      <c r="U28" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="V28" s="29"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
+    </row>
+    <row r="29" spans="3:29">
+      <c r="T29" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="U29" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="V29" s="29"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
+    </row>
+    <row r="30" spans="3:29">
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30"/>
+    </row>
+    <row r="31" spans="3:29">
+      <c r="C31" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="X26" s="15"/>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="20"/>
-    </row>
-    <row r="27" spans="3:29">
-      <c r="C27" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="27"/>
-      <c r="T27" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="U27" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="V27" s="27"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="20"/>
-      <c r="AC27"/>
-    </row>
-    <row r="28" spans="3:29">
-      <c r="C28" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="27"/>
-      <c r="T28" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="U28" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="V28" s="27"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="20"/>
-    </row>
-    <row r="29" spans="3:29">
-      <c r="T29" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="U29" s="27" t="s">
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29">
+      <c r="C32" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="V29" s="27"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="20"/>
-    </row>
-    <row r="30" spans="3:29">
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="20"/>
-      <c r="AC30"/>
-    </row>
-    <row r="31" spans="3:29">
-      <c r="C31" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="24" t="s">
+      <c r="F32" s="18"/>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" s="16" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="32" spans="3:29">
-      <c r="C32" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E32" s="24" t="s">
+      <c r="D33" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F33" s="18"/>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F32" s="19"/>
-    </row>
-    <row r="33" spans="3:6">
-      <c r="C33" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="F33" s="19"/>
-    </row>
-    <row r="34" spans="3:6">
-      <c r="C34" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
+      <c r="D34" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="3:6">
-      <c r="C35" s="17"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="3:6">
-      <c r="C36" s="16"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="3:6">
       <c r="C37" s="7"/>
-      <c r="D37" s="19"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="3:6">
       <c r="C38" s="7"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="3:6">
       <c r="C39" s="7"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="19"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="3:6">
       <c r="C40" s="7"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="19"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="3:6">
-      <c r="C41" s="17"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="T11:U11"/>
     <mergeCell ref="T12:U12"/>
@@ -1701,42 +1744,7 @@
     <mergeCell ref="N12:Q12"/>
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
     <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="T21:W21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
